--- a/biology/Écologie/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(F)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(F).xlsx
+++ b/biology/Écologie/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(F)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(F).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(F)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 à compléter par ordre alphabétique
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(F)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fab
-Fabiana - Solanacées
-Fac
-Facheiroa - fam. Cactacées (Cactus)
-Facheiroa squamosa
-Facheiroa ulei
-</t>
+          <t>Fab</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fabiana - Solanacées</t>
         </is>
       </c>
     </row>
@@ -530,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(F)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +557,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Fa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fac</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facheiroa - fam. Cactacées (Cactus)
+Facheiroa squamosa
+Facheiroa ulei
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Fe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fer
-Ferocactus - fam. Cactacées (Cactus)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fer</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferocactus - fam. Cactacées (Cactus)
 Ferocactus alamosanus
 Ferocactus chrysacanthus
 Ferocactus cylindraceus
@@ -580,45 +636,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Fi</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fic
-Ficus
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(F)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,13 +657,55 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Fi</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fic</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ficus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(F)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Fr</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fra
- Frailea - fam. Cactacées (Cactus)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fra</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Frailea - fam. Cactacées (Cactus)
 Frailea albicolumnaris
 Frailea castanea
 Frailea cataphracta
